--- a/DataTable/ClassCharacterTable.xlsx
+++ b/DataTable/ClassCharacterTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -139,6 +139,22 @@
   </si>
   <si>
     <t>战斗技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultCardList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,7 +508,7 @@
     <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +539,11 @@
       <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -555,8 +574,11 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -587,8 +609,11 @@
       <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -618,6 +643,9 @@
       </c>
       <c r="J4" s="1">
         <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
